--- a/LongboardLights BOM.xlsx
+++ b/LongboardLights BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Description</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Grand Total:</t>
-  </si>
-  <si>
-    <t>Mainboard Total:</t>
   </si>
   <si>
     <t>SMD</t>
@@ -179,15 +176,193 @@
   <si>
     <t>http://www.mouser.com/ds/2/115/AL8805-59388.pdf</t>
   </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3,C4,C5</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>C1,C5</t>
+  </si>
+  <si>
+    <t>C2,C6</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>L1,L2</t>
+  </si>
+  <si>
+    <t>D3,D5</t>
+  </si>
+  <si>
+    <t>GRM188R61E225MA12D</t>
+  </si>
+  <si>
+    <t>2.2uF Capacitor</t>
+  </si>
+  <si>
+    <t>GRM21BR61E475KA12L</t>
+  </si>
+  <si>
+    <t>81-GRM21BR61E475KA12</t>
+  </si>
+  <si>
+    <t>4.7uF Capacitor</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>Headlight Total:</t>
+  </si>
+  <si>
+    <t>Taillight Total:</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/281/c02e-2905.pdf</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E225MA2D</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>RLP73N2AR30JTD</t>
+  </si>
+  <si>
+    <t>279-RLP73N2AR30JTD</t>
+  </si>
+  <si>
+    <t>0.3 ohm resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/418/NG_DS_1773269_G-722660.pdf</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ622V</t>
+  </si>
+  <si>
+    <t>667-ERJ-3GEYJ622V</t>
+  </si>
+  <si>
+    <t>6.2k ohm resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/315/AOA0000C84-947596.pdf</t>
+  </si>
+  <si>
+    <t>1.6k ohm resistor</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>RK73B1JTTDD162J</t>
+  </si>
+  <si>
+    <t>660-RK73B1JTTDD162J</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/219/RK73B-919.pdf</t>
+  </si>
+  <si>
+    <t>SRN6045TA-151M</t>
+  </si>
+  <si>
+    <t>652-SRN6045TA-151M</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/54/SRN6045-968015.pdf</t>
+  </si>
+  <si>
+    <t>150uH Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6mm x 6mm </t>
+  </si>
+  <si>
+    <t>DFLS1200-7</t>
+  </si>
+  <si>
+    <t>621-DFLS1200-F</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>PowerDI-123</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/115/ds30628-48014.pdf</t>
+  </si>
+  <si>
+    <t>C3,C4,C7</t>
+  </si>
+  <si>
+    <t>1uF Capacitor</t>
+  </si>
+  <si>
+    <t>GRM188R61E105KA12D</t>
+  </si>
+  <si>
+    <t>81-GRM188R61E105KA12</t>
+  </si>
+  <si>
+    <t>PCB Total:</t>
+  </si>
+  <si>
+    <t>PCB1</t>
+  </si>
+  <si>
+    <t>PCB2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -205,12 +380,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -258,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -290,11 +459,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,7 +511,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,12 +534,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -371,9 +558,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +566,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +933,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -745,21 +954,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -805,41 +1014,41 @@
         <v>11</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
       <c r="B6" s="13">
-        <f>(1*G35)</f>
+        <f>(1*G41)</f>
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="15">
         <f>IF(B6&lt;=9,0.87,IF(B6&lt;=99,0.747,IF(B6&lt;=499,0.574)))</f>
@@ -850,410 +1059,923 @@
         <v>0.87</v>
       </c>
       <c r="I6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11">
+        <f>(3*G41)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11">
-        <f>(3*G35)</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="15">
         <f>IF(B7&lt;=9,1.79,IF(B7&lt;=49,1.72,IF(B7&lt;=99,1.65)))</f>
         <v>1.79</v>
       </c>
       <c r="H7" s="15">
-        <f t="shared" ref="H7:H12" si="0">(B7*G7)</f>
+        <f t="shared" ref="H7:H15" si="0">(B7*G7)</f>
         <v>5.37</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>3</v>
       </c>
       <c r="B8" s="11">
-        <f>(1*G35)</f>
+        <f>(1*G41)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="G8" s="15">
-        <f>IF(B8&lt;=9,0.15,IF(B8&lt;=99,0.014,IF(B8&lt;=999,0.006)))</f>
+        <f>IF(B8&lt;=9,0.15,IF(B8&lt;=99,0.1,IF(B8&lt;=999,0.047)))</f>
         <v>0.15</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="K8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>4</v>
       </c>
       <c r="B9" s="11">
-        <f>(1*G35)</f>
+        <f>(1*G41)</f>
         <v>1</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G9" s="15">
-        <f>IF(B9&lt;=49,0.11,IF(B9&lt;=99,0.109,IF(B9&lt;=499,0.106)))</f>
-        <v>0.11</v>
+        <f>IF(B9&lt;=9,0.12,IF(B9&lt;=99,0.08,IF(B9&lt;=999,0.038)))</f>
+        <v>0.12</v>
       </c>
       <c r="H9" s="15">
         <f>(B9*G9)</f>
-        <v>0.11</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="17"/>
+        <v>0.12</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="K9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>5</v>
       </c>
       <c r="B10" s="11">
-        <f>(1*G35)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+        <f>(3*G41)</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="G10" s="15">
-        <f>IF(B10&lt;=24,0.15,IF(B10&lt;=99,0.013,IF(B10&lt;=249,0.073)))</f>
-        <v>0.15</v>
+        <f>IF(B10&lt;=9,0.1,IF(B10&lt;=99,0.019,IF(B10&lt;=499,0.013)))</f>
+        <v>0.1</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="16"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="K10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>6</v>
       </c>
       <c r="B11" s="11">
-        <f>(2*G35)</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="15">
-        <f>IF(B10&lt;=9,3.89,IF(B10&lt;=49,3.6,IF(B10&lt;=99,3.27)))</f>
-        <v>3.89</v>
+        <f>IF(B11&lt;=9,0.1,IF(B11&lt;=99,0.086,IF(B11&lt;=999,0.048)))</f>
+        <v>0.1</v>
       </c>
       <c r="H11" s="15">
         <f t="shared" si="0"/>
-        <v>7.78</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>7</v>
       </c>
       <c r="B12" s="11">
-        <f>(1*G35)</f>
+        <f>(1*G41)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="15">
-        <f>IF(B12&lt;=9,7.25,IF(B12&lt;=24,6,IF(B12&lt;=49,5.76)))</f>
-        <v>7.25</v>
+        <f>IF(B12&lt;=9,0.09,IF(B12&lt;=99,0.02,IF(B12&lt;=999,0.01)))</f>
+        <v>0.09</v>
       </c>
       <c r="H12" s="15">
         <f t="shared" si="0"/>
-        <v>7.25</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+        <v>0.09</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
+      <c r="A13" s="18">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="15">
+        <f>IF(B13&lt;=9,0.08,IF(B13&lt;=99,0.009,IF(B13&lt;=999,0.004)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>8</v>
+      <c r="A14" s="18">
+        <v>9</v>
       </c>
       <c r="B14" s="11">
-        <f>(2*G35)</f>
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="15">
+        <f>IF(B14&lt;=9,0.38,IF(B14&lt;=24,0.336,IF(B14&lt;=49,0.312)))</f>
+        <v>0.38</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>10</v>
+      </c>
+      <c r="B15" s="11">
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="15">
+        <f>IF(B15&lt;=9,0.58,IF(B15&lt;=99,0.487,IF(B15&lt;=999,0.297)))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11">
+        <f>(2*G41)</f>
         <v>2</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="15">
+        <f>IF(B17&lt;=9,0.87,IF(B17&lt;=99,0.747,IF(B17&lt;=499,0.574)))</f>
+        <v>0.87</v>
+      </c>
+      <c r="H17" s="15">
+        <f>B17*G17</f>
+        <v>1.74</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11">
+        <f>(2*G41)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="15">
+        <f>IF(B18&lt;=9,1.58,IF(B18&lt;=49,1.52,IF(B18&lt;=99,1.46)))</f>
+        <v>1.58</v>
+      </c>
+      <c r="H18" s="15">
+        <f>B18*G18</f>
+        <v>3.16</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11">
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15">
+        <f>IF(B19&lt;=9,1.58,IF(B19&lt;=49,1.52,IF(B19&lt;=99,1.46)))</f>
+        <v>1.58</v>
+      </c>
+      <c r="H19" s="15">
+        <f>B19*G19</f>
+        <v>1.58</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11">
+        <f>(2*G41)</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="15">
+        <f>IF(B20&lt;=9,0.15,IF(B20&lt;=99,0.1,IF(B20&lt;=999,0.047)))</f>
+        <v>0.15</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" ref="H20:H30" si="1">B20*G20</f>
+        <v>0.3</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11">
+        <f>(2*G41)</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="15">
+        <f>IF(B21&lt;=9,0.12,IF(B21&lt;=99,0.08,IF(B21&lt;=999,0.038)))</f>
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11">
+        <f>(3*G41)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="15">
+        <f>IF(B22&lt;=9,0.1,IF(B22&lt;=99,0.019,IF(B22&lt;=499,0.013)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>17</v>
+      </c>
+      <c r="B23" s="11">
+        <f>(2*G41)</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="15">
+        <f>IF(B23&lt;=9,0.1,IF(B23&lt;=99,0.086,IF(B23&lt;=999,0.048)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
         <v>18</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="15">
-        <f>IF(B14&lt;=9,0.87,IF(B14&lt;=99,0.747,IF(B14&lt;=499,0.574)))</f>
-        <v>0.87</v>
-      </c>
-      <c r="H14" s="15">
-        <f>B14*G14</f>
-        <v>1.74</v>
-      </c>
-      <c r="I14" s="13" t="s">
+      <c r="B24" s="11">
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="15">
+        <f>IF(B24&lt;=9,0.09,IF(B24&lt;=99,0.02,IF(B24&lt;=999,0.01)))</f>
+        <v>0.09</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
         <v>19</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11">
-        <f>(2*G35)</f>
+      <c r="B25" s="11">
+        <f>(1*G41)</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="15">
+        <f>IF(B25&lt;=9,0.08,IF(B25&lt;=99,0.009,IF(B25&lt;=999,0.004)))</f>
+        <v>0.08</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11">
+        <f>(2*G41)</f>
         <v>2</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="15">
-        <f>IF(B12&lt;=9,1.58,IF(B12&lt;=49,1.52,IF(B12&lt;=99,1.46)))</f>
-        <v>1.58</v>
-      </c>
-      <c r="H15" s="15">
-        <f>B15*G15</f>
-        <v>3.16</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>10</v>
-      </c>
-      <c r="B16" s="11">
-        <f>(1*G35)</f>
+      <c r="C26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="15">
+        <f>IF(B26&lt;=9,0.38,IF(B26&lt;=24,0.336,IF(B26&lt;=49,0.312)))</f>
+        <v>0.38</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.76</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>21</v>
+      </c>
+      <c r="B27" s="34">
+        <f>(2*G41)</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="37">
+        <f>IF(B26&lt;=9,0.58,IF(B26&lt;=99,0.487,IF(B26&lt;=999,0.297)))</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H27" s="37">
+        <f t="shared" si="1"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>22</v>
+      </c>
+      <c r="B29" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15">
-        <f>IF(B12&lt;=9,1.58,IF(B12&lt;=49,1.52,IF(B12&lt;=99,1.46)))</f>
-        <v>1.58</v>
-      </c>
-      <c r="H16" s="15">
-        <f>B16*G16</f>
-        <v>1.58</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>11</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>12</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H27" s="9"/>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="C29" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="38">
+        <v>11.9</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11">
         <v>1</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="7">
-        <f>SUM(H6:H12)</f>
-        <v>21.68</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="7"/>
+      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="38">
+        <v>11.9</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="9"/>
     </row>
     <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="5" t="s">
-        <v>12</v>
+      <c r="F41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H42" s="7">
-        <f>SUM(H36+H39)</f>
-        <v>21.68</v>
+        <f>SUM(H6:H15)</f>
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="7">
+        <f>SUM(H17:H27)</f>
+        <v>9.6100000000000012</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="7">
+        <f>SUM(H29:H30)</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="7">
+        <f>SUM(H42+H45+H48)</f>
+        <v>41.45</v>
       </c>
     </row>
   </sheetData>

--- a/LongboardLights BOM.xlsx
+++ b/LongboardLights BOM.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -198,27 +198,6 @@
     <t>Panasonic</t>
   </si>
   <si>
-    <t>ERJ-3GEYJ622V</t>
-  </si>
-  <si>
-    <t>667-ERJ-3GEYJ622V</t>
-  </si>
-  <si>
-    <t>6.2k ohm resistor</t>
-  </si>
-  <si>
-    <t>1.6k ohm resistor</t>
-  </si>
-  <si>
-    <t>KOA Speer</t>
-  </si>
-  <si>
-    <t>RK73B1JTTDD162J</t>
-  </si>
-  <si>
-    <t>660-RK73B1JTTDD162J</t>
-  </si>
-  <si>
     <t>DFLS1200-7</t>
   </si>
   <si>
@@ -244,21 +223,6 @@
   </si>
   <si>
     <t>Laird Technologies</t>
-  </si>
-  <si>
-    <t>TYS4030470M-10</t>
-  </si>
-  <si>
-    <t>875-TYS4030470M-10</t>
-  </si>
-  <si>
-    <t>47uH Inductor</t>
-  </si>
-  <si>
-    <t>4mm x 4mm</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/223/SIP-DS-TYS%204030%200413-558543.pdf</t>
   </si>
   <si>
     <t>http://www.mouser.com/ds/2/90/dsXPG3-931454.pdf</t>
@@ -318,6 +282,51 @@
       </rPr>
       <t xml:space="preserve"> - PCB</t>
     </r>
+  </si>
+  <si>
+    <t>Oshpark</t>
+  </si>
+  <si>
+    <t>LR8zDDeL</t>
+  </si>
+  <si>
+    <t>TYS5040101M-10</t>
+  </si>
+  <si>
+    <t>875-TYS5040101M-10</t>
+  </si>
+  <si>
+    <t>100uH Inductor</t>
+  </si>
+  <si>
+    <t>5mm x 5mm</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/223/SIP-DS-TYS%205040%200413-537395.pdf</t>
+  </si>
+  <si>
+    <t>10k ohm resistor</t>
+  </si>
+  <si>
+    <t>38k ohm resistor</t>
+  </si>
+  <si>
+    <t>667-ERJ-3GEYJ103V</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ103V</t>
+  </si>
+  <si>
+    <t>603-RC0603FR-0738K3L</t>
+  </si>
+  <si>
+    <t>RC0603FR-0738K3L</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>order 10</t>
   </si>
 </sst>
 </file>
@@ -537,13 +546,13 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -889,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -908,21 +917,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -990,7 +999,7 @@
       </c>
       <c r="B6" s="12">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -1010,7 +1019,7 @@
       </c>
       <c r="H6" s="14">
         <f>(B6*G6)</f>
-        <v>0.87</v>
+        <v>1.74</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>18</v>
@@ -1031,7 +1040,7 @@
       </c>
       <c r="B7" s="10">
         <f>(3*G22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>20</v>
@@ -1051,7 +1060,7 @@
       </c>
       <c r="H7" s="14">
         <f t="shared" ref="H7:H15" si="0">(B7*G7)</f>
-        <v>5.37</v>
+        <v>10.74</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>23</v>
@@ -1063,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1072,7 +1081,7 @@
       </c>
       <c r="B8" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>34</v>
@@ -1092,7 +1101,7 @@
       </c>
       <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>46</v>
@@ -1110,7 +1119,7 @@
       </c>
       <c r="B9" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>35</v>
@@ -1130,7 +1139,7 @@
       </c>
       <c r="H9" s="14">
         <f>(B9*G9)</f>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>43</v>
@@ -1148,17 +1157,17 @@
       </c>
       <c r="B10" s="10">
         <f>(3*G22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G10" s="14">
         <f>IF(B10&lt;=9,0.1,IF(B10&lt;=99,0.019,IF(B10&lt;=499,0.013)))</f>
@@ -1166,10 +1175,10 @@
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>47</v>
@@ -1184,7 +1193,7 @@
       </c>
       <c r="B11" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>37</v>
@@ -1204,13 +1213,13 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>13</v>
@@ -1222,19 +1231,19 @@
       </c>
       <c r="B12" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G12" s="14">
         <f>IF(B12&lt;=9,0.09,IF(B12&lt;=99,0.02,IF(B12&lt;=999,0.01)))</f>
@@ -1242,16 +1251,19 @@
       </c>
       <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J12" s="15" t="s">
         <v>47</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>13</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1260,19 +1272,19 @@
       </c>
       <c r="B13" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G13" s="14">
         <f>IF(B13&lt;=9,0.08,IF(B13&lt;=99,0.009,IF(B13&lt;=999,0.004)))</f>
@@ -1280,10 +1292,10 @@
       </c>
       <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>47</v>
@@ -1298,39 +1310,38 @@
       </c>
       <c r="B14" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="G14" s="14">
-        <f>IF(B14&lt;=9,0.5,IF(B14&lt;=99,0.337,IF(B14&lt;=499,0.27)))</f>
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1339,7 +1350,7 @@
       </c>
       <c r="B15" s="10">
         <f>(1*G22)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>38</v>
@@ -1348,10 +1359,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G15" s="14">
         <f>IF(B15&lt;=9,0.58,IF(B15&lt;=99,0.487,IF(B15&lt;=999,0.297)))</f>
@@ -1359,13 +1370,13 @@
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>13</v>
@@ -1390,7 +1401,7 @@
       </c>
       <c r="B17" s="10">
         <f>(3*G22)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>22</v>
@@ -1410,7 +1421,7 @@
       </c>
       <c r="H17" s="14">
         <f>B17*G17</f>
-        <v>4.74</v>
+        <v>9.48</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>24</v>
@@ -1423,7 +1434,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -1436,24 +1447,28 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>23</v>
       </c>
       <c r="B19" s="10">
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="32">
-        <v>11.9</v>
+        <v>2.15</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" ref="H19" si="1">B19*G19</f>
-        <v>11.9</v>
+        <v>2.15</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1464,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>49</v>
@@ -1473,7 +1488,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H23" s="7">
         <f>SUM(H6:H15)</f>
-        <v>8.16</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1487,18 +1502,18 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H26" s="7">
         <f>SUM(H6,H8:H15,H17)</f>
-        <v>7.5300000000000011</v>
+        <v>15.080000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H29" s="7">
         <f>SUM(H19:H19)</f>
-        <v>11.9</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1509,7 +1524,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H32" s="7">
         <f>SUM(H23+H26+(2*H29))</f>
-        <v>39.49</v>
+        <v>35.72</v>
       </c>
     </row>
   </sheetData>
